--- a/biology/Médecine/Jean-André_Venel/Jean-André_Venel.xlsx
+++ b/biology/Médecine/Jean-André_Venel/Jean-André_Venel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-Andr%C3%A9_Venel</t>
+          <t>Jean-André_Venel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-André Venel, né le 28 mai 1740 à Morges et mort le 9 mars 1791 à Orbe, est un chirurgien-orthopédiste suisse[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-André Venel, né le 28 mai 1740 à Morges et mort le 9 mars 1791 à Orbe, est un chirurgien-orthopédiste suisse.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-Andr%C3%A9_Venel</t>
+          <t>Jean-André_Venel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De confession protestante, Jean-André Venel est originaire du Vernay (aujourd'hui sur les communes de Bursins et de Luins) ; il obtient la boureoisie d'Orbe en 1764. Il est le fils de Jean-François Venel, chirurgien-barbier et perruquier, et de Françoise-Elizabeth Guex. Il épouse en 1765 Marianne Jaccard et, en secondes noces, en 1786, Emilie Pavillard[1].
-Après un apprentissage de chirurgien à Genève chez François-David Cabanis (1725–1794), il se perfectionne à Montpellier, à Paris et à Strasbourg. Il pratique la chirurgie à Orbe et Yverdon avant de se mettre au service du comte Stanislas Potocki entre 1770 et 1775. Il ouvre en 1778, à Yverdon, la première école pour sages-femmes de Suisse. Il se tourne ensuite vers l'orthopédie et crée en 1780 la première clinique orthopédique connue au monde à Orbe, ce qui fait de lui un pionnier de la discipline[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De confession protestante, Jean-André Venel est originaire du Vernay (aujourd'hui sur les communes de Bursins et de Luins) ; il obtient la boureoisie d'Orbe en 1764. Il est le fils de Jean-François Venel, chirurgien-barbier et perruquier, et de Françoise-Elizabeth Guex. Il épouse en 1765 Marianne Jaccard et, en secondes noces, en 1786, Emilie Pavillard.
+Après un apprentissage de chirurgien à Genève chez François-David Cabanis (1725–1794), il se perfectionne à Montpellier, à Paris et à Strasbourg. Il pratique la chirurgie à Orbe et Yverdon avant de se mettre au service du comte Stanislas Potocki entre 1770 et 1775. Il ouvre en 1778, à Yverdon, la première école pour sages-femmes de Suisse. Il se tourne ensuite vers l'orthopédie et crée en 1780 la première clinique orthopédique connue au monde à Orbe, ce qui fait de lui un pionnier de la discipline.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean-Andr%C3%A9_Venel</t>
+          <t>Jean-André_Venel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Nouveaux Secours Pour les Corps arrêtés Dans L’Oesophage; Ou Description De quatre Instrumens plus propres qu’aucun des anciens moyens à retirer ces Corps par la Bouche (1769)
 Essai sur la santé et sur l’éducation médicinale des filles destinées au mariage (1776)</t>
